--- a/simulation_data/iterative_algorithm/i_error_level_1_percent_water_20.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_1_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.12603956447953</v>
+        <v>90.00659818208533</v>
       </c>
       <c r="D2" t="n">
-        <v>1.092120635238171</v>
+        <v>1.145989044823193</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.95471895257114</v>
+        <v>88.90584455863733</v>
       </c>
       <c r="D3" t="n">
-        <v>1.039495472032989</v>
+        <v>1.119058301603628</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.12704669247849</v>
+        <v>88.00962810530783</v>
       </c>
       <c r="D4" t="n">
-        <v>1.121323653013286</v>
+        <v>1.130278587829954</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.94743883311199</v>
+        <v>86.95744093210044</v>
       </c>
       <c r="D5" t="n">
-        <v>1.184216336653569</v>
+        <v>1.173502982033062</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.09348573665636</v>
+        <v>85.99017212246761</v>
       </c>
       <c r="D6" t="n">
-        <v>1.111448830602569</v>
+        <v>1.053259704184752</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.05573958863428</v>
+        <v>84.92167763197693</v>
       </c>
       <c r="D7" t="n">
-        <v>1.215715938579442</v>
+        <v>1.083644477089666</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.03770491048799</v>
+        <v>83.90166728243302</v>
       </c>
       <c r="D8" t="n">
-        <v>1.168321782575906</v>
+        <v>1.130628772818302</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.82898074941228</v>
+        <v>83.00090846718389</v>
       </c>
       <c r="D9" t="n">
-        <v>1.174441360739141</v>
+        <v>1.040372296113665</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.89865436304703</v>
+        <v>81.8715205398897</v>
       </c>
       <c r="D10" t="n">
-        <v>1.090386450337209</v>
+        <v>1.00135306293787</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.02706812117788</v>
+        <v>80.99843802283782</v>
       </c>
       <c r="D11" t="n">
-        <v>1.188020788485673</v>
+        <v>1.046975114451548</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.93226134437991</v>
+        <v>80.02424054388476</v>
       </c>
       <c r="D12" t="n">
-        <v>1.268540785017249</v>
+        <v>1.030538207556735</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.9329503900147</v>
+        <v>79.14761783685171</v>
       </c>
       <c r="D13" t="n">
-        <v>1.123218363235777</v>
+        <v>1.183934008162057</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.98371436121943</v>
+        <v>78.01957106109478</v>
       </c>
       <c r="D14" t="n">
-        <v>1.187431717960526</v>
+        <v>1.12524065233573</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.11753040982599</v>
+        <v>77.13648322776714</v>
       </c>
       <c r="D15" t="n">
-        <v>1.243617474169306</v>
+        <v>1.207066152602675</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.94228160247835</v>
+        <v>76.01725054562522</v>
       </c>
       <c r="D16" t="n">
-        <v>1.087847693428685</v>
+        <v>0.9943117070644497</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.94450594374635</v>
+        <v>75.04403171692013</v>
       </c>
       <c r="D17" t="n">
-        <v>1.302793767582644</v>
+        <v>1.242852748423637</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.05971361225986</v>
+        <v>73.98648994883108</v>
       </c>
       <c r="D18" t="n">
-        <v>1.161449104987358</v>
+        <v>1.104059800881016</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.77911004349539</v>
+        <v>73.04687674452252</v>
       </c>
       <c r="D19" t="n">
-        <v>1.266052516855787</v>
+        <v>1.045120412050929</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.84586684192529</v>
+        <v>72.04083081498371</v>
       </c>
       <c r="D20" t="n">
-        <v>1.243994945979924</v>
+        <v>1.034697569999816</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.92477024234783</v>
+        <v>71.0703520370446</v>
       </c>
       <c r="D21" t="n">
-        <v>1.178395277527999</v>
+        <v>1.097483953689845</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.18421746944031</v>
+        <v>69.92789053090229</v>
       </c>
       <c r="D22" t="n">
-        <v>1.316800627407781</v>
+        <v>1.111784557620048</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.96187037995597</v>
+        <v>68.94953054548915</v>
       </c>
       <c r="D23" t="n">
-        <v>1.147891008156013</v>
+        <v>1.00723396216987</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.87111908573279</v>
+        <v>68.17518887047237</v>
       </c>
       <c r="D24" t="n">
-        <v>1.20988353076559</v>
+        <v>0.9966380332048621</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.98602145976231</v>
+        <v>67.03257031783201</v>
       </c>
       <c r="D25" t="n">
-        <v>1.113308380784108</v>
+        <v>1.129124057119393</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.03452032196685</v>
+        <v>66.20687123502297</v>
       </c>
       <c r="D26" t="n">
-        <v>1.287814316810376</v>
+        <v>1.140580817953609</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.83193890045554</v>
+        <v>65.14488679080483</v>
       </c>
       <c r="D27" t="n">
-        <v>1.08029200510062</v>
+        <v>1.2938769339235</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.96970623576618</v>
+        <v>63.88979222904332</v>
       </c>
       <c r="D28" t="n">
-        <v>1.098662958562489</v>
+        <v>1.058178376881289</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.99226207888357</v>
+        <v>62.87120788124525</v>
       </c>
       <c r="D29" t="n">
-        <v>1.010601256771844</v>
+        <v>1.183027606367569</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.92616861981116</v>
+        <v>62.02933076566511</v>
       </c>
       <c r="D30" t="n">
-        <v>1.156710246939841</v>
+        <v>1.183352990230399</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.93803448906598</v>
+        <v>61.05539052818842</v>
       </c>
       <c r="D31" t="n">
-        <v>1.305457922674926</v>
+        <v>1.178675885141572</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.92365521482876</v>
+        <v>59.88643574970343</v>
       </c>
       <c r="D32" t="n">
-        <v>1.137056711953643</v>
+        <v>1.128479802764669</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.9459300065315</v>
+        <v>59.12216149693179</v>
       </c>
       <c r="D33" t="n">
-        <v>1.157261783527421</v>
+        <v>1.183314040065652</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.91110608108029</v>
+        <v>57.98890256064945</v>
       </c>
       <c r="D34" t="n">
-        <v>1.206748661009305</v>
+        <v>1.06809129476858</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.03954589844624</v>
+        <v>56.97358328494166</v>
       </c>
       <c r="D35" t="n">
-        <v>1.107705071634236</v>
+        <v>1.065183145876439</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.89092687686983</v>
+        <v>55.87870645245351</v>
       </c>
       <c r="D36" t="n">
-        <v>1.356523215568777</v>
+        <v>1.070067446525284</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.72025630657014</v>
+        <v>55.02467179226203</v>
       </c>
       <c r="D37" t="n">
-        <v>1.211024296122612</v>
+        <v>1.163553443636188</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.10872074419126</v>
+        <v>53.92568759799147</v>
       </c>
       <c r="D38" t="n">
-        <v>1.253998392936266</v>
+        <v>1.127020444363554</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.88928642553709</v>
+        <v>53.04671746309944</v>
       </c>
       <c r="D39" t="n">
-        <v>1.287225100636995</v>
+        <v>1.168270859336963</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.86016451674765</v>
+        <v>51.72970229824776</v>
       </c>
       <c r="D40" t="n">
-        <v>1.028387763531462</v>
+        <v>1.129267612763005</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.78989675732085</v>
+        <v>51.02425542914929</v>
       </c>
       <c r="D41" t="n">
-        <v>1.151968369532432</v>
+        <v>1.161611604889485</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.89818941286336</v>
+        <v>49.98830218610053</v>
       </c>
       <c r="D42" t="n">
-        <v>1.07174049018413</v>
+        <v>1.140149007522377</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.87379201504746</v>
+        <v>48.98278559946169</v>
       </c>
       <c r="D43" t="n">
-        <v>1.245565272820889</v>
+        <v>1.186279601206516</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.01908584620664</v>
+        <v>48.10393136749697</v>
       </c>
       <c r="D44" t="n">
-        <v>1.3038342766295</v>
+        <v>1.146294771337158</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.99820337146147</v>
+        <v>46.9177217167334</v>
       </c>
       <c r="D45" t="n">
-        <v>1.222464616083215</v>
+        <v>1.111640194644321</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.84855233442549</v>
+        <v>46.01603701294879</v>
       </c>
       <c r="D46" t="n">
-        <v>1.313273884219338</v>
+        <v>1.315756087147392</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.13585990110519</v>
+        <v>45.13645213811762</v>
       </c>
       <c r="D47" t="n">
-        <v>1.140012131350123</v>
+        <v>1.191507593182184</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.02048079574307</v>
+        <v>43.8248569640224</v>
       </c>
       <c r="D48" t="n">
-        <v>1.158000056333688</v>
+        <v>1.073088982172061</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.89972271629861</v>
+        <v>42.94570272030833</v>
       </c>
       <c r="D49" t="n">
-        <v>1.274203432583087</v>
+        <v>1.091730873790699</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.87108984848668</v>
+        <v>42.05437827495147</v>
       </c>
       <c r="D50" t="n">
-        <v>1.206942265757401</v>
+        <v>1.130730922968474</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.03414465149812</v>
+        <v>40.98106334654014</v>
       </c>
       <c r="D51" t="n">
-        <v>1.178882454942444</v>
+        <v>1.073842494256261</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.00067461940617</v>
+        <v>39.85473457675073</v>
       </c>
       <c r="D52" t="n">
-        <v>1.201951277863265</v>
+        <v>1.266206863474884</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.00175267353549</v>
+        <v>39.04406789657892</v>
       </c>
       <c r="D53" t="n">
-        <v>1.202755149047818</v>
+        <v>1.283992622368988</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.98523074458651</v>
+        <v>38.03490970129435</v>
       </c>
       <c r="D54" t="n">
-        <v>1.162754793789971</v>
+        <v>1.153607204938069</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.96917110291391</v>
+        <v>36.95777289641934</v>
       </c>
       <c r="D55" t="n">
-        <v>1.205712576717674</v>
+        <v>1.144151480749807</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.06639075126082</v>
+        <v>36.1170948770845</v>
       </c>
       <c r="D56" t="n">
-        <v>1.196373287270694</v>
+        <v>1.131044772876938</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.24084681914198</v>
+        <v>34.9526868727779</v>
       </c>
       <c r="D57" t="n">
-        <v>1.215013955822779</v>
+        <v>1.19820886859154</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.87352990754316</v>
+        <v>34.10309394948671</v>
       </c>
       <c r="D58" t="n">
-        <v>1.296626108269765</v>
+        <v>1.079056446360096</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.90141002534364</v>
+        <v>33.1362658833901</v>
       </c>
       <c r="D59" t="n">
-        <v>1.295231239429636</v>
+        <v>1.212369748524393</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.91044345882428</v>
+        <v>32.05039407481502</v>
       </c>
       <c r="D60" t="n">
-        <v>1.022622145862862</v>
+        <v>1.169202128380945</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.02279205160641</v>
+        <v>30.97181712482649</v>
       </c>
       <c r="D61" t="n">
-        <v>1.235489772873974</v>
+        <v>1.065873380964676</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.99286692751875</v>
+        <v>29.99384290028536</v>
       </c>
       <c r="D62" t="n">
-        <v>1.252207735043884</v>
+        <v>1.299539255023897</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.11860702108368</v>
+        <v>29.0033399082743</v>
       </c>
       <c r="D63" t="n">
-        <v>1.231427558320436</v>
+        <v>1.214893503311694</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.06070939816166</v>
+        <v>28.00261133483083</v>
       </c>
       <c r="D64" t="n">
-        <v>1.100997028568517</v>
+        <v>1.282969542281445</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.84754816428149</v>
+        <v>26.92487683105519</v>
       </c>
       <c r="D65" t="n">
-        <v>1.089558253552668</v>
+        <v>1.090738000885747</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.1325648836647</v>
+        <v>26.21166708602462</v>
       </c>
       <c r="D66" t="n">
-        <v>1.213024704767386</v>
+        <v>1.274699708687328</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.72855678857289</v>
+        <v>25.08385452816836</v>
       </c>
       <c r="D67" t="n">
-        <v>1.152470916762038</v>
+        <v>1.200907364471806</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.93118299505337</v>
+        <v>24.07825422890556</v>
       </c>
       <c r="D68" t="n">
-        <v>1.168574719554965</v>
+        <v>1.101572552432612</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.0254034567778</v>
+        <v>23.06956940034418</v>
       </c>
       <c r="D69" t="n">
-        <v>1.241632096775549</v>
+        <v>1.458916049652247</v>
       </c>
     </row>
   </sheetData>
